--- a/techniqo/data_new_ticker/ALKYLAMINE.xlsx
+++ b/techniqo/data_new_ticker/ALKYLAMINE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1398"/>
+  <dimension ref="A1:G1400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49316,6 +49316,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>3377</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>3409</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>3330.45</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>3373.25</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>34313</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>3395</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>3360</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>3368</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>19099</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ALKYLAMINE.xlsx
+++ b/techniqo/data_new_ticker/ALKYLAMINE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1400"/>
+  <dimension ref="A1:G1402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49366,6 +49366,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>3389</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>3390</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>3290.1</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>3310.7</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>25404</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>3295</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>3360</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>3269</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>3334.75</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>27078</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
